--- a/精馏/精馏原始记录表(非).xlsx
+++ b/精馏/精馏原始记录表(非).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spyNow\化工原理实验\精馏\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LGRepository\Chemical-Engineering\精馏\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E5C07A-F662-4168-93E1-CC0CC0363FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD034EF-D460-4D3A-B477-1D22515838BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{89DA23BA-93EE-4A42-BDDC-E3A7AFBD8CBC}"/>
+    <workbookView xWindow="-576" yWindow="3156" windowWidth="17280" windowHeight="9420" xr2:uid="{89DA23BA-93EE-4A42-BDDC-E3A7AFBD8CBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>酒精度/°</t>
   </si>
   <si>
-    <t>20°C酒精度/°</t>
-  </si>
-  <si>
     <t>塔顶温度/°C</t>
   </si>
   <si>
@@ -79,6 +76,10 @@
   </si>
   <si>
     <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20°C酒精度(查表)/°</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,7 +88,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="0.0;[Red]0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0;[Red]0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -152,38 +153,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -506,156 +504,168 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H4" sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="8" width="12.77734375" style="6" customWidth="1"/>
+    <col min="1" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="8" width="15.77734375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>25</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="6">
         <v>95.1</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="5">
+      <c r="E2" s="6">
+        <v>94.6</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="7">
         <v>78</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="7">
         <v>86.2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6">
         <v>29</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>24.5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="E3" s="6">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
+      <c r="A4" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
         <v>27</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>94.2</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="5">
+      <c r="E4" s="6">
+        <v>93.7</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="7">
         <v>78</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="7">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6">
         <v>27</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>15.4</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="E5" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6">
         <v>25.2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>27.5</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="E6" s="6">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6">
         <v>26</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>26</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="E7" s="6">
+        <v>25.5</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="H4:H7"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
